--- a/biology/Zoologie/Erketu/Erketu.xlsx
+++ b/biology/Zoologie/Erketu/Erketu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erketu ellisoni
 Erketu est un genre éteint de dinosaures sauropodes du Crétacé inférieur retrouvé en Mongolie. 
-L'espèce type et seule espèce, Erketu ellisoni, a été décrite en mars 2006 par Daniel T. Ksepka (d) et Mark Norell du Musée américain d'histoire naturelle[1].
+L'espèce type et seule espèce, Erketu ellisoni, a été décrite en mars 2006 par Daniel T. Ksepka (d) et Mark Norell du Musée américain d'histoire naturelle.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom spécifique a été donné en l'honneur de Mick Ellison.
 </t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Erketu possède un très long cou. Celui-ci aurait été deux fois plus long que son corps, ce qui est peut-être un rapport cou/corps record.
 </t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Daniel T. Ksepka et Mark A. Norell, « Erketu ellisoni, a Long-necked Sauropod from Bor Guvé (Dornogov Aimag, Mongolia) », American Museum Novitates, New York, Musée américain d'histoire naturelle, vol. 3508, no 1,‎ 2006, p. 1-16 (ISSN 0003-0082 et 1937-352X, OCLC 47720325, DOI 10.1206/0003-0082(2006)3508[1:EEALSF]2.0.CO;2, lire en ligne)</t>
         </is>
